--- a/config/stroop/Stroop_run1.xlsx
+++ b/config/stroop/Stroop_run1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="107" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="642" uniqueCount="33">
   <si>
     <t>trial</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>onset</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
   </si>
 </sst>
 </file>
@@ -188,16 +203,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -208,19 +223,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="0">
         <v>3</v>
@@ -231,16 +246,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>9</v>
@@ -254,16 +269,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>9</v>
@@ -280,16 +295,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6" s="0">
         <v>12</v>
@@ -300,19 +315,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="0">
         <v>15</v>
@@ -323,19 +338,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="0">
         <v>18</v>
@@ -346,13 +361,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>24</v>
@@ -369,16 +384,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>7</v>
@@ -395,16 +410,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="0">
         <v>27</v>
@@ -415,19 +430,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="0">
         <v>30</v>
@@ -438,19 +453,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="0">
         <v>33</v>
@@ -461,19 +476,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="0">
         <v>36</v>
@@ -484,16 +499,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>10</v>
@@ -507,19 +522,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" s="0">
         <v>42</v>
@@ -530,19 +545,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="0">
         <v>45</v>
@@ -553,16 +568,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>8</v>
@@ -576,13 +591,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>24</v>
@@ -599,19 +614,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="0">
         <v>54</v>
@@ -622,19 +637,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="0">
         <v>57</v>
